--- a/Testdata/Templates/UtilityOutcome/QOL/OldImportLogic/QOL_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL/OldImportLogic/QOL_OldImportExpectedResult.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCF1FD7-D327-45BF-9D06-70A2ADD72D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C1F9DF-3238-4107-BB5F-B0EE998A034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>Utility Elicitation Method and Source</t>
   </si>
   <si>
-    <t>Article Identifier(s)</t>
-  </si>
-  <si>
     <t>Study Design</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>Patients had to have been receiving Abiraterone + Prednisone or Enzalutamide treatment for a minimum of two months</t>
+  </si>
+  <si>
+    <t>Study Identifier</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
       <pane xSplit="9" ySplit="12" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1081,7 +1081,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="62.4">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1137,31 +1137,31 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1178,31 +1178,31 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1219,31 +1219,31 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="F4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1260,31 +1260,31 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1301,31 +1301,31 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1342,31 +1342,31 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1383,31 +1383,31 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1424,31 +1424,31 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1465,31 +1465,31 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1506,31 +1506,31 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1547,31 +1547,31 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1588,31 +1588,31 @@
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1629,31 +1629,31 @@
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1670,31 +1670,31 @@
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1711,31 +1711,31 @@
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1752,31 +1752,31 @@
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1796,15 +1796,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b34b9c2d2d2ae622ceb9becde627447d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="754865f092840b442e748268bc313caa" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -2015,6 +2006,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2030,14 +2030,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2056,6 +2048,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
